--- a/exceltocsv/public/reports/employee_dtr/Keng,Julie.xlsx
+++ b/exceltocsv/public/reports/employee_dtr/Keng,Julie.xlsx
@@ -68,79 +68,79 @@
     <t>REMARKS</t>
   </si>
   <si>
-    <t>03-21-2015</t>
+    <t>05-09-2015</t>
   </si>
   <si>
     <t>Saturday</t>
   </si>
   <si>
-    <t>16:45:00</t>
-  </si>
-  <si>
-    <t>03-22-2015</t>
+    <t>05-10-2015</t>
   </si>
   <si>
     <t>Sunday</t>
   </si>
   <si>
-    <t>03-23-2015</t>
+    <t>05-11-2015</t>
   </si>
   <si>
     <t>Monday</t>
   </si>
   <si>
-    <t>16:37:00</t>
-  </si>
-  <si>
-    <t>03-24-2015</t>
+    <t>10:00:00</t>
+  </si>
+  <si>
+    <t>13:49:00</t>
+  </si>
+  <si>
+    <t>05-12-2015</t>
   </si>
   <si>
     <t>Tuesday</t>
   </si>
   <si>
-    <t>03-25-2015</t>
+    <t>05-13-2015</t>
   </si>
   <si>
     <t>Wednesday</t>
   </si>
   <si>
-    <t>03-26-2015</t>
+    <t>05-14-2015</t>
   </si>
   <si>
     <t>Thursday</t>
   </si>
   <si>
-    <t>03-27-2015</t>
+    <t>05-15-2015</t>
   </si>
   <si>
     <t>Friday</t>
   </si>
   <si>
-    <t>03-28-2015</t>
-  </si>
-  <si>
-    <t>03-29-2015</t>
-  </si>
-  <si>
-    <t>03-30-2015</t>
-  </si>
-  <si>
-    <t>03-31-2015</t>
-  </si>
-  <si>
-    <t>04-01-2015</t>
-  </si>
-  <si>
-    <t>04-02-2015</t>
-  </si>
-  <si>
-    <t>~Special Day - Maundy Thursday ( Regular Holiday )</t>
-  </si>
-  <si>
-    <t>04-03-2015</t>
-  </si>
-  <si>
-    <t>~Special Day - Good Friday ( Regular Holiday )</t>
+    <t>13:26:00</t>
+  </si>
+  <si>
+    <t>05-16-2015</t>
+  </si>
+  <si>
+    <t>05-17-2015</t>
+  </si>
+  <si>
+    <t>05-18-2015</t>
+  </si>
+  <si>
+    <t>17:25:00</t>
+  </si>
+  <si>
+    <t>05-19-2015</t>
+  </si>
+  <si>
+    <t>05-20-2015</t>
+  </si>
+  <si>
+    <t>05-21-2015</t>
+  </si>
+  <si>
+    <t>05-22-2015</t>
   </si>
   <si>
     <t>NUMBER OF TIMES TARDY</t>
@@ -619,9 +619,7 @@
       <c r="B5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -646,10 +644,10 @@
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -676,15 +674,17 @@
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="C7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="D7" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
@@ -797,30 +797,32 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="P11" s="11" t="inlineStr">
+      <c r="C11" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P11" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -828,7 +830,7 @@
     </row>
     <row r="12">
       <c r="A12" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>20</v>
@@ -858,10 +860,10 @@
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -887,30 +889,32 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="P14" s="11" t="inlineStr">
+      <c r="A14" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P14" s="10" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -918,7 +922,7 @@
     </row>
     <row r="15">
       <c r="A15" s="11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>28</v>
@@ -948,7 +952,7 @@
     </row>
     <row r="16">
       <c r="A16" s="11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>30</v>
@@ -977,59 +981,63 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="9" t="s">
+      <c r="A17" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="P17" s="9" t="s">
-        <v>41</v>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P17" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="9" t="s">
+      <c r="A18" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="P18" s="9" t="s">
-        <v>43</v>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P18" s="11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -1046,7 +1054,7 @@
         <v>45</v>
       </c>
       <c r="E19" s="17" t="str">
-        <f>COUNT(E5:E15)</f>
+        <f>COUNT(E5:E18)</f>
       </c>
       <c r="F19" s="8" t="s">
         <v>45</v>
@@ -1096,7 +1104,7 @@
         <v>45</v>
       </c>
       <c r="E20" s="17" t="str">
-        <f>SUM(E5:E15)</f>
+        <f>SUM(E5:E18)</f>
       </c>
       <c r="F20" s="6" t="s">
         <v>45</v>
@@ -1205,10 +1213,10 @@
         <v>45</v>
       </c>
       <c r="H22" s="17" t="str">
-        <f>SUM(H5:H15)</f>
-      </c>
-      <c r="I22" s="6" t="str">
-        <f>SUM(I5:I15)</f>
+        <f>SUM(H5:H18)</f>
+      </c>
+      <c r="I22" s="17" t="str">
+        <f>SUM(I5:I18)</f>
       </c>
       <c r="J22" s="6" t="s">
         <v>45</v>
@@ -1258,7 +1266,7 @@
         <v>45</v>
       </c>
       <c r="I23" s="17" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="J23" s="6" t="s">
         <v>45</v>
